--- a/biology/Zoologie/Juditha_azan/Juditha_azan.xlsx
+++ b/biology/Zoologie/Juditha_azan/Juditha_azan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juditha azan est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Juditha.
 </t>
@@ -511,13 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juditha azan a été décrit par John Obadiah Westwood en 1851 sous le nom de Nymphidium azan[1]
-Sous-espèces
-Juditha azan azan; présent au Brésil.
-Juditha azan completa (Lathy, 1904); présent en Colombie, en Bolivie, au Pérou et au Brésil.
-Juditha azan majorina Brévignon &amp; Gallard, 1998; présent en Guyane, en Guyana, au Venezuela, à Trinité-et-Tobago et au Brésil.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha azan a été décrit par John Obadiah Westwood en 1851 sous le nom de Nymphidium azan
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juditha azan est un papillon à l'apex des ailes antérieures formant un angle bien marqué, de couleur blanche bordé d'ocre foncé sur le bord costal des ailes antérieures et sur le bord externe des ailes antérieures et postérieures d'une bordure ocre foncé porteuse d'une ligne submarginale de taches marron cernées d'une fine ligne blanche.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Juditha azan azan; présent au Brésil.
+Juditha azan completa (Lathy, 1904); présent en Colombie, en Bolivie, au Pérou et au Brésil.
+Juditha azan majorina Brévignon &amp; Gallard, 1998; présent en Guyane, en Guyana, au Venezuela, à Trinité-et-Tobago et au Brésil.</t>
         </is>
       </c>
     </row>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie est mal connue.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha azan est un papillon à l'apex des ailes antérieures formant un angle bien marqué, de couleur blanche bordé d'ocre foncé sur le bord costal des ailes antérieures et sur le bord externe des ailes antérieures et postérieures d'une bordure ocre foncé porteuse d'une ligne submarginale de taches marron cernées d'une fine ligne blanche.
 </t>
         </is>
       </c>
@@ -604,15 +624,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Juditha_azan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_azan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juditha azan est présent en Guyane, en Guyana, au Venezuela, à Trinité-et-Tobago, en Colombie, en Bolivie, au Pérou et au Brésil[1].
-Biotope
-Protection
-Pas de statut de protection particulier
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juditha azan est présent en Guyane, en Guyana, au Venezuela, à Trinité-et-Tobago, en Colombie, en Bolivie, au Pérou et au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Juditha_azan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Juditha_azan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
